--- a/Jogos_do_Dia/2023-09-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI26"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -663,10 +663,10 @@
         <v>3.3</v>
       </c>
       <c r="N2" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="P2" t="n">
         <v>1.38</v>
@@ -714,7 +714,7 @@
         <v>4.33</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF2" t="n">
         <v>1.67</v>
@@ -726,7 +726,7 @@
         <v>2.63</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="3">
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -778,10 +778,10 @@
         <v>3.4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O3" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -820,19 +820,19 @@
         <v>3</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG3" t="n">
         <v>1.77</v>
@@ -841,7 +841,7 @@
         <v>2.18</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="4">
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
@@ -893,10 +893,10 @@
         <v>2.9</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P4" t="n">
         <v>1.45</v>
@@ -935,13 +935,13 @@
         <v>2.63</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AE4" t="n">
         <v>1.57</v>
@@ -953,10 +953,10 @@
         <v>2.43</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="5">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1002,16 +1002,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1105,49 +1105,49 @@
         <v>1.44</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.42</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O6" t="n">
         <v>2.1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T6" t="n">
         <v>1.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="V6" t="n">
-        <v>2.55</v>
+        <v>2.74</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1165,16 +1165,16 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>4.72</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF6" t="n">
         <v>1.58</v>
@@ -1186,7 +1186,7 @@
         <v>2.4</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -1223,7 +1223,7 @@
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1238,10 +1238,10 @@
         <v>3.9</v>
       </c>
       <c r="N7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O7" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="P7" t="n">
         <v>1.33</v>
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="H8" t="n">
-        <v>4.35</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1468,10 +1468,10 @@
         <v>3.6</v>
       </c>
       <c r="N9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1510,28 +1510,28 @@
         <v>2.55</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="10">
@@ -1553,46 +1553,46 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Peterborough United</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cheltenham Town</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>1.44</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.75</v>
+        <v>6.75</v>
       </c>
       <c r="J10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R10" t="n">
         <v>1.75</v>
@@ -1601,52 +1601,52 @@
         <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.45</v>
+        <v>1.14</v>
       </c>
       <c r="U10" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="V10" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X10" t="n">
-        <v>1.67</v>
+        <v>0.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="11">
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
         <v>1.03</v>
@@ -1698,10 +1698,10 @@
         <v>3.04</v>
       </c>
       <c r="N11" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P11" t="n">
         <v>1.41</v>
@@ -1731,37 +1731,37 @@
         <v>0.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.66</v>
+        <v>2.45</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG11" t="n">
         <v>1.72</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="12">
@@ -1783,46 +1783,46 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Peterborough United</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cheltenham Town</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>5.75</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N12" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O12" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="P12" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R12" t="n">
         <v>1.75</v>
@@ -1831,52 +1831,52 @@
         <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="U12" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="V12" t="n">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="W12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Z12" t="n">
         <v>1.33</v>
       </c>
-      <c r="X12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.14</v>
-      </c>
       <c r="AA12" t="n">
-        <v>2.62</v>
+        <v>2.79</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="13">
@@ -1898,100 +1898,100 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Preston North End</t>
+          <t>Cardiff City</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N13" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="P13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S13" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T13" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U13" t="n">
         <v>1.3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="W13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.09</v>
+        <v>1.46</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.35</v>
+        <v>2.74</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="14">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.06</v>
@@ -2043,10 +2043,10 @@
         <v>3.25</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O14" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="P14" t="n">
         <v>1.45</v>
@@ -2085,28 +2085,28 @@
         <v>2.15</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="15">
@@ -2128,100 +2128,100 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Preston North End</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>1.61</v>
+        <v>2.3</v>
       </c>
       <c r="O15" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="P15" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA15" t="n">
         <v>2.35</v>
       </c>
-      <c r="T15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>3.51</v>
-      </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="16">
@@ -2243,100 +2243,100 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cardiff City</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J16" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
-        <v>2.9</v>
+        <v>4.33</v>
       </c>
       <c r="N16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O16" t="n">
         <v>2.2</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.6</v>
-      </c>
       <c r="P16" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="S16" t="n">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="U16" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="V16" t="n">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X16" t="n">
-        <v>0.67</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z16" t="n">
         <v>1.46</v>
       </c>
-      <c r="Z16" t="n">
-        <v>1.28</v>
-      </c>
       <c r="AA16" t="n">
-        <v>2.74</v>
+        <v>3.51</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="17">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J17" t="n">
         <v>1.06</v>
@@ -2388,10 +2388,10 @@
         <v>3.3</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2430,28 +2430,28 @@
         <v>2.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="18">
@@ -2482,13 +2482,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J18" t="n">
         <v>1.03</v>
@@ -2503,10 +2503,10 @@
         <v>4.2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="O18" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="P18" t="n">
         <v>1.3</v>
@@ -2597,13 +2597,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.06</v>
@@ -2618,10 +2618,10 @@
         <v>3.54</v>
       </c>
       <c r="N19" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O19" t="n">
         <v>1.91</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.8</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
@@ -2733,10 +2733,10 @@
         <v>4.6</v>
       </c>
       <c r="N20" t="n">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="O20" t="n">
-        <v>2.35</v>
+        <v>2.17</v>
       </c>
       <c r="P20" t="n">
         <v>1.29</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I21" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
         <v>1.01</v>
@@ -2848,10 +2848,10 @@
         <v>8.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="O21" t="n">
-        <v>4.2</v>
+        <v>4.11</v>
       </c>
       <c r="P21" t="n">
         <v>1.14</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H22" t="n">
         <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" t="n">
         <v>1.01</v>
@@ -2963,10 +2963,10 @@
         <v>6</v>
       </c>
       <c r="N22" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="O22" t="n">
-        <v>2.94</v>
+        <v>2.99</v>
       </c>
       <c r="P22" t="n">
         <v>1.2</v>
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="J23" t="n">
         <v>1.04</v>
@@ -3078,10 +3078,10 @@
         <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>1.67</v>
+        <v>1.97</v>
       </c>
       <c r="O23" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="P23" t="n">
         <v>1.33</v>
@@ -3256,7 +3256,7 @@
         <v>2.7</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="25">
@@ -3278,28 +3278,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Huracán</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="J25" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K25" t="n">
-        <v>7.61</v>
+        <v>6.83</v>
       </c>
       <c r="L25" t="n">
         <v>1.45</v>
@@ -3326,52 +3326,52 @@
         <v>1.67</v>
       </c>
       <c r="T25" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U25" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="V25" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="W25" t="n">
-        <v>2.25</v>
+        <v>1.47</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.76</v>
+        <v>2.81</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>6.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.6</v>
+        <v>2.83</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="26">
@@ -3393,28 +3393,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Huracán</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K26" t="n">
-        <v>6.83</v>
+        <v>7.61</v>
       </c>
       <c r="L26" t="n">
         <v>1.45</v>
@@ -3441,52 +3441,282 @@
         <v>1.67</v>
       </c>
       <c r="T26" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AB26" t="n">
         <v>1.78</v>
       </c>
-      <c r="W26" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AC26" t="n">
-        <v>8.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.33</v>
+        <v>1.91</v>
       </c>
       <c r="AH26" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>24</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>América Mineiro</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>29</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Sampaio Corrêa</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.63</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-09-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -663,10 +663,10 @@
         <v>3.3</v>
       </c>
       <c r="N2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P2" t="n">
         <v>1.38</v>
@@ -690,10 +690,10 @@
         <v>2.35</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="X2" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="Y2" t="n">
         <v>1.53</v>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -778,10 +778,10 @@
         <v>3.4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P3" t="n">
         <v>1.4</v>
@@ -805,10 +805,10 @@
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="Y3" t="n">
         <v>1.54</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
@@ -893,10 +893,10 @@
         <v>2.9</v>
       </c>
       <c r="N4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="P4" t="n">
         <v>1.45</v>
@@ -920,10 +920,10 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="X4" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="Y4" t="n">
         <v>1.33</v>
@@ -987,19 +987,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.59</v>
@@ -1008,34 +1008,34 @@
         <v>2.26</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1050,25 +1050,25 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -1102,31 +1102,31 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4.42</v>
+        <v>4.22</v>
       </c>
       <c r="I6" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M6" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="N6" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="O6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>1.3</v>
@@ -1135,22 +1135,22 @@
         <v>3.34</v>
       </c>
       <c r="R6" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="U6" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="V6" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1238,10 +1238,10 @@
         <v>3.9</v>
       </c>
       <c r="N7" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="O7" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="P7" t="n">
         <v>1.33</v>
@@ -1265,10 +1265,10 @@
         <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1356,7 +1356,7 @@
         <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P8" t="n">
         <v>1.29</v>
@@ -1380,10 +1380,10 @@
         <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y8" t="n">
         <v>0.95</v>
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.65</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1468,10 +1468,10 @@
         <v>3.6</v>
       </c>
       <c r="N9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1553,100 +1553,100 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Peterborough United</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cheltenham Town</t>
+          <t>Burton Albion</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>6.75</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="L10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.22</v>
       </c>
-      <c r="M10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.14</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="V10" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="W10" t="n">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
         <v>0.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.92</v>
+        <v>2.89</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="11">
@@ -1668,100 +1668,100 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Burton Albion</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M11" t="n">
         <v>3.4</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3.04</v>
-      </c>
       <c r="N11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="O11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.75</v>
       </c>
-      <c r="P11" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.9</v>
-      </c>
       <c r="S11" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="U11" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>0.25</v>
+        <v>1.67</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.45</v>
+        <v>2.79</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.89</v>
+        <v>2.35</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="12">
@@ -1783,46 +1783,46 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Peterborough United</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cheltenham Town</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>5.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="M12" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="P12" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R12" t="n">
         <v>1.75</v>
@@ -1831,52 +1831,52 @@
         <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.45</v>
+        <v>1.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="V12" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X12" t="n">
-        <v>1.67</v>
+        <v>0.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.79</v>
+        <v>2.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.81</v>
+        <v>1.36</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.300000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.35</v>
+        <v>3.92</v>
       </c>
       <c r="AE12" t="n">
         <v>1.17</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13">
@@ -1898,100 +1898,100 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cardiff City</t>
+          <t>Preston North End</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.7</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="R13" t="n">
         <v>1.9</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.92</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T13" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U13" t="n">
         <v>1.3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.46</v>
+        <v>1.09</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.74</v>
+        <v>2.35</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.05</v>
+        <v>2.39</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.47</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="14">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="J14" t="n">
         <v>1.06</v>
@@ -2043,10 +2043,10 @@
         <v>3.25</v>
       </c>
       <c r="N14" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="P14" t="n">
         <v>1.45</v>
@@ -2128,100 +2128,100 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Preston North End</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X15" t="n">
         <v>3</v>
       </c>
-      <c r="N15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W15" t="n">
-        <v>3</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.33</v>
-      </c>
       <c r="Y15" t="n">
-        <v>1.09</v>
+        <v>2.05</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.35</v>
+        <v>3.51</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.39</v>
+        <v>2.44</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AH15" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.84</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="16">
@@ -2243,106 +2243,106 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Cardiff City</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.62</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
-        <v>4.33</v>
+        <v>2.9</v>
       </c>
       <c r="N16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.6</v>
       </c>
-      <c r="O16" t="n">
-        <v>2.2</v>
-      </c>
       <c r="P16" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="S16" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="T16" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="W16" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="Y16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD16" t="n">
         <v>2.05</v>
       </c>
-      <c r="Z16" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>2.44</v>
-      </c>
       <c r="AE16" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AH16" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.71</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Europe UEFA Champions League</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2354,104 +2354,104 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Royal Antwerp FC</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Sheffield Wednesday</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Middlesbrough</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.35</v>
-      </c>
       <c r="I17" t="n">
-        <v>2.15</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="M17" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>1.9</v>
+        <v>1.36</v>
       </c>
       <c r="O17" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.8</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.98</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="V17" t="n">
-        <v>1.33</v>
+        <v>4.9</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.44</v>
+        <v>1.17</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="AI17" t="n">
-        <v>2.71</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="18">
@@ -2473,61 +2473,61 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.57</v>
+        <v>4.2</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>1.83</v>
       </c>
       <c r="J18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K18" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M18" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="O18" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="P18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.16</v>
+        <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="V18" t="n">
-        <v>2.49</v>
+        <v>1.24</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2545,28 +2545,28 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.44</v>
+        <v>2.65</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="19">
@@ -2588,61 +2588,61 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Atlético Madrid</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>1.07</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
+        <v>46</v>
       </c>
       <c r="J19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K19" t="n">
+        <v>31</v>
+      </c>
+      <c r="L19" t="n">
         <v>1.06</v>
       </c>
-      <c r="K19" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.29</v>
-      </c>
       <c r="M19" t="n">
-        <v>3.54</v>
+        <v>8.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.99</v>
+        <v>1.22</v>
       </c>
       <c r="O19" t="n">
-        <v>1.91</v>
+        <v>4.2</v>
       </c>
       <c r="P19" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="S19" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="T19" t="n">
-        <v>1.59</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>1.32</v>
+        <v>1.02</v>
       </c>
       <c r="V19" t="n">
-        <v>1.45</v>
+        <v>9.4</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2660,28 +2660,28 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>2.08</v>
+        <v>1.11</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="AG19" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.55</v>
+        <v>1.97</v>
       </c>
       <c r="AI19" t="n">
-        <v>3.45</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="20">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
@@ -2733,10 +2733,10 @@
         <v>4.6</v>
       </c>
       <c r="N20" t="n">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="O20" t="n">
-        <v>2.17</v>
+        <v>2.35</v>
       </c>
       <c r="P20" t="n">
         <v>1.29</v>
@@ -2818,61 +2818,61 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Atlético Madrid</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.05</v>
+        <v>2.87</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>2.45</v>
       </c>
       <c r="J21" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>31</v>
+        <v>8.75</v>
       </c>
       <c r="L21" t="n">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
-        <v>8.5</v>
+        <v>3.54</v>
       </c>
       <c r="N21" t="n">
-        <v>1.21</v>
+        <v>1.91</v>
       </c>
       <c r="O21" t="n">
-        <v>4.11</v>
+        <v>1.8</v>
       </c>
       <c r="P21" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>1.59</v>
       </c>
       <c r="U21" t="n">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="V21" t="n">
-        <v>9.4</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2890,28 +2890,28 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.11</v>
+        <v>2.08</v>
       </c>
       <c r="AC21" t="n">
-        <v>16</v>
+        <v>7.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.5</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.97</v>
+        <v>2.55</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.48</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="22">
@@ -2933,67 +2933,67 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FC Barcelona</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Royal Antwerp FC</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.17</v>
+        <v>1.61</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>14</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="M22" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="O22" t="n">
-        <v>2.99</v>
+        <v>2.25</v>
       </c>
       <c r="P22" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="U22" t="n">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="V22" t="n">
-        <v>4.9</v>
+        <v>2.49</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -3005,34 +3005,34 @@
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="AC22" t="n">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="AH22" t="n">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AI22" t="n">
-        <v>2.3</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Europe UEFA Champions League</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3044,104 +3044,104 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="n">
         <v>1.75</v>
       </c>
-      <c r="J23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T23" t="n">
+      <c r="AE23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH23" t="n">
         <v>2.08</v>
       </c>
-      <c r="U23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>2.38</v>
-      </c>
       <c r="AI23" t="n">
-        <v>3.15</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="24">
@@ -3278,28 +3278,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Huracán</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>6.83</v>
+        <v>7.61</v>
       </c>
       <c r="L25" t="n">
         <v>1.45</v>
@@ -3326,52 +3326,52 @@
         <v>1.67</v>
       </c>
       <c r="T25" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AB25" t="n">
         <v>1.78</v>
       </c>
-      <c r="W25" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AC25" t="n">
-        <v>8.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.33</v>
+        <v>1.91</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AI25" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="26">
@@ -3393,28 +3393,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Huracán</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="J26" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K26" t="n">
-        <v>7.61</v>
+        <v>6.83</v>
       </c>
       <c r="L26" t="n">
         <v>1.45</v>
@@ -3441,52 +3441,52 @@
         <v>1.67</v>
       </c>
       <c r="T26" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="V26" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="W26" t="n">
-        <v>2.25</v>
+        <v>1.47</v>
       </c>
       <c r="X26" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.76</v>
+        <v>2.81</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.6</v>
+        <v>2.83</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AG26" t="n">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="AH26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="27">
@@ -3520,34 +3520,34 @@
         <v>2.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N27" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O27" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R27" t="n">
         <v>1.75</v>
@@ -3556,13 +3556,13 @@
         <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W27" t="n">
         <v>1.18</v>
@@ -3580,10 +3580,10 @@
         <v>3.31</v>
       </c>
       <c r="AB27" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
         <v>2.05</v>
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I28" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
         <v>1.12</v>
@@ -3647,13 +3647,13 @@
         <v>6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="M28" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
